--- a/Assignment 04 - Postman Test Cases.xlsx
+++ b/Assignment 04 - Postman Test Cases.xlsx
@@ -76,7 +76,7 @@
   </si>
   <si>
     <t>Status code: 401 Unauthorized
-Login fails</t>
+Login fails, error message appears: "Bad username or password"</t>
   </si>
   <si>
     <t>TC2</t>
@@ -111,7 +111,7 @@
   </si>
   <si>
     <t>Status code: 200 OK
-User is logged out</t>
+User is logged out, response is OK</t>
   </si>
   <si>
     <t>TC4</t>
